--- a/docss/trend/belgium/E_neuron.xlsx
+++ b/docss/trend/belgium/E_neuron.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Desktop\IC3-Design\docs\trend\belgium\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELENA\Documents\IC3\ic3desarrollo\docss\trend\belgium\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -221,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -232,9 +232,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1580,7 +1577,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D14"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1603,182 +1600,182 @@
       <c r="A2">
         <v>2002</v>
       </c>
-      <c r="B2" s="5">
-        <v>1.5782152134925127</v>
-      </c>
-      <c r="C2" s="5">
-        <v>2.0513538159430027</v>
-      </c>
-      <c r="D2" s="5">
-        <v>1.1249523162841797</v>
+      <c r="B2">
+        <v>1.5780000000000001</v>
+      </c>
+      <c r="C2">
+        <v>2.0510000000000002</v>
+      </c>
+      <c r="D2">
+        <v>1.125</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2003</v>
       </c>
-      <c r="B3" s="5">
-        <v>1.5876531843096018</v>
-      </c>
-      <c r="C3" s="5">
-        <v>1.9410301111638546</v>
-      </c>
-      <c r="D3" s="5">
-        <v>1.2932792119681835</v>
+      <c r="B3">
+        <v>1.5880000000000001</v>
+      </c>
+      <c r="C3">
+        <v>1.9410000000000001</v>
+      </c>
+      <c r="D3">
+        <v>1.2929999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2004</v>
       </c>
-      <c r="B4" s="5">
-        <v>1.8494750307872891</v>
-      </c>
-      <c r="C4" s="5">
-        <v>2.0682082809507847</v>
-      </c>
-      <c r="D4" s="5">
-        <v>1.6750343032181263</v>
+      <c r="B4">
+        <v>1.849</v>
+      </c>
+      <c r="C4">
+        <v>2.0680000000000001</v>
+      </c>
+      <c r="D4">
+        <v>1.675</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2005</v>
       </c>
-      <c r="B5" s="5">
-        <v>1.6368318777531385</v>
-      </c>
-      <c r="C5" s="5">
-        <v>2.1238380987197161</v>
-      </c>
-      <c r="D5" s="5">
-        <v>1.2580202594399452</v>
+      <c r="B5">
+        <v>1.637</v>
+      </c>
+      <c r="C5">
+        <v>2.1240000000000001</v>
+      </c>
+      <c r="D5">
+        <v>1.258</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2006</v>
       </c>
-      <c r="B6" s="5">
-        <v>1.5893664751201868</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1.8808699306100607</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1.3487632032483816</v>
+      <c r="B6">
+        <v>1.589</v>
+      </c>
+      <c r="C6">
+        <v>1.881</v>
+      </c>
+      <c r="D6">
+        <v>1.349</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2007</v>
       </c>
-      <c r="B7" s="5">
-        <v>1.7292855456471443</v>
-      </c>
-      <c r="C7" s="5">
-        <v>2.0617233235388994</v>
-      </c>
-      <c r="D7" s="5">
-        <v>1.4533979445695877</v>
+      <c r="B7">
+        <v>1.7290000000000001</v>
+      </c>
+      <c r="C7">
+        <v>2.0619999999999998</v>
+      </c>
+      <c r="D7">
+        <v>1.4530000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2008</v>
       </c>
-      <c r="B8" s="5">
-        <v>1.8060211082920432</v>
-      </c>
-      <c r="C8" s="5">
-        <v>2.2221800033003092</v>
-      </c>
-      <c r="D8" s="5">
-        <v>1.4857621919363737</v>
+      <c r="B8">
+        <v>1.806</v>
+      </c>
+      <c r="C8">
+        <v>2.222</v>
+      </c>
+      <c r="D8">
+        <v>1.486</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2009</v>
       </c>
-      <c r="B9" s="5">
-        <v>1.9017399773001671</v>
-      </c>
-      <c r="C9" s="5">
-        <v>2.1511181890964508</v>
-      </c>
-      <c r="D9" s="5">
-        <v>1.676100155338645</v>
+      <c r="B9">
+        <v>1.9019999999999999</v>
+      </c>
+      <c r="C9">
+        <v>2.1509999999999998</v>
+      </c>
+      <c r="D9">
+        <v>1.6759999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2010</v>
       </c>
-      <c r="B10" s="5">
-        <v>1.6809852020815015</v>
-      </c>
-      <c r="C10" s="5">
-        <v>1.9172387588769197</v>
-      </c>
-      <c r="D10" s="5">
-        <v>1.4857478588819504</v>
+      <c r="B10">
+        <v>1.681</v>
+      </c>
+      <c r="C10">
+        <v>1.917</v>
+      </c>
+      <c r="D10">
+        <v>1.486</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2011</v>
       </c>
-      <c r="B11" s="5">
-        <v>1.8253223914653063</v>
-      </c>
-      <c r="C11" s="5">
-        <v>2.1189616452902555</v>
-      </c>
-      <c r="D11" s="5">
-        <v>1.6072451919317245</v>
+      <c r="B11">
+        <v>1.825</v>
+      </c>
+      <c r="C11">
+        <v>2.1190000000000002</v>
+      </c>
+      <c r="D11">
+        <v>1.607</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2012</v>
       </c>
-      <c r="B12" s="5">
-        <v>1.6436748374253511</v>
-      </c>
-      <c r="C12" s="5">
-        <v>2.0029522627592087</v>
-      </c>
-      <c r="D12" s="5">
-        <v>1.352459117770195</v>
+      <c r="B12">
+        <v>1.6439999999999999</v>
+      </c>
+      <c r="C12">
+        <v>2.0030000000000001</v>
+      </c>
+      <c r="D12">
+        <v>1.3520000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2013</v>
       </c>
-      <c r="B13" s="5">
-        <v>1.660650385543704</v>
-      </c>
-      <c r="C13" s="5">
-        <v>1.9889382962137461</v>
-      </c>
-      <c r="D13" s="5">
-        <v>1.3536665122956038</v>
+      <c r="B13">
+        <v>1.661</v>
+      </c>
+      <c r="C13">
+        <v>1.9890000000000001</v>
+      </c>
+      <c r="D13">
+        <v>1.3540000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2014</v>
       </c>
-      <c r="B14" s="5">
-        <v>1.86919089499861</v>
-      </c>
-      <c r="C14" s="5">
-        <v>2.4461487978696823</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1.3437421452254057</v>
+      <c r="B14">
+        <v>1.869</v>
+      </c>
+      <c r="C14">
+        <v>2.4460000000000002</v>
+      </c>
+      <c r="D14">
+        <v>1.3440000000000001</v>
       </c>
     </row>
   </sheetData>
